--- a/biology/Botanique/Domaine_du_Clos_Lamalgue/Domaine_du_Clos_Lamalgue.xlsx
+++ b/biology/Botanique/Domaine_du_Clos_Lamalgue/Domaine_du_Clos_Lamalgue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Domaine du Clos Lamalgue est un domaine viticole situé à Toulon (Var) dans le quartier résidentiel du Cap Brun.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Monges exploite les derniers vignobles du cap Brun, dont le vin était à l'honneur sur la table de Louis XIV[réf. nécessaire]. Aujourd'hui le Domaine du Clos Lamalgue demeure, avec celui de Montmartre, l'un des derniers vignobles citadins français. Plus de 10 000 bouteilles estampillées Clos Lamalgue sont vendues aux restaurateurs du cru et à quelques touristes attirés par ce nectar spécial[réf. nécessaire].
 </t>
